--- a/ArcadeMVD-STM v1.5/BOM MS-ArcadeMVD-STM 01-1.5/BOM (complete design) MS-ArcadeMVD-STM 01-1.5.xlsx
+++ b/ArcadeMVD-STM v1.5/BOM MS-ArcadeMVD-STM 01-1.5/BOM (complete design) MS-ArcadeMVD-STM 01-1.5.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E424D45D-34A7-4F07-9017-28117FBF2724}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{65DB87E9-9160-4E5D-A369-94F13253CB90}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21732" yWindow="2760" windowWidth="22140" windowHeight="20100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -149,7 +149,7 @@
     <t>None</t>
   </si>
   <si>
-    <t>27/08/2019</t>
+    <t>30/08/2019</t>
   </si>
   <si>
     <t>1000</t>
@@ -164,7 +164,7 @@
     <t>1.5</t>
   </si>
   <si>
-    <t>15:05:36</t>
+    <t>15:27:43</t>
   </si>
   <si>
     <t>MakeCode Arcade reference design for STM32F4</t>
@@ -764,16 +764,16 @@
     <t>#Column Name Error:link</t>
   </si>
   <si>
-    <t>D:\shodges\TFS-MSR\SenDev\Projects\EduBoards - MS\ArcadeMVD\Altium\ArcadeMVD-STM v1.5\ArcadeMVD-STM 01-1.5.PrjPCB</t>
-  </si>
-  <si>
-    <t>D:\shodges\TFS-MSR\SenDev\Projects\EduBoards - MS\ArcadeMVD\Altium\ArcadeMVD-STM v1.5\ArcadeMVD-STM 01-1.5 complete design.SchDoc</t>
+    <t>D:\shodges\TFS-MSR\SenDev\Projects\EduBoards - MS\ArcadeMVD\Altium\ArcadeMVD-STM v1.5 RTM\ArcadeMVD-STM 01-1.5.PrjPCB</t>
+  </si>
+  <si>
+    <t>D:\shodges\TFS-MSR\SenDev\Projects\EduBoards - MS\ArcadeMVD\Altium\ArcadeMVD-STM v1.5 RTM\ArcadeMVD-STM 01-1.5 complete design.SchDoc</t>
   </si>
   <si>
     <t>47</t>
   </si>
   <si>
-    <t>27/08/2019 15:05:36</t>
+    <t>30/08/2019 15:27:43</t>
   </si>
   <si>
     <t>Bill of Materials</t>
@@ -2331,11 +2331,11 @@
       </c>
       <c r="B8" s="14">
         <f ca="1">TODAY()</f>
-        <v>43704</v>
+        <v>43707</v>
       </c>
       <c r="C8" s="49">
         <f ca="1">NOW()</f>
-        <v>43704.629450231485</v>
+        <v>43707.644839120374</v>
       </c>
       <c r="D8"/>
       <c r="E8" s="11"/>
@@ -2743,7 +2743,7 @@
       </c>
       <c r="L16" s="94">
         <f>IF(MIN($P16,$T16,$X16,$AB16)&lt;&gt;0,MIN($P16,$T16,$X16,$AB16),"")</f>
-        <v>45.48</v>
+        <v>45.36</v>
       </c>
       <c r="M16" s="117" t="s">
         <v>137</v>
@@ -2755,7 +2755,7 @@
         <v>0.01</v>
       </c>
       <c r="P16" s="51">
-        <v>45.48</v>
+        <v>45.36</v>
       </c>
       <c r="Q16" s="122" t="s">
         <v>136</v>
@@ -2903,7 +2903,7 @@
       </c>
       <c r="L18" s="94">
         <f>IF(MIN($P18,$T18,$X18,$AB18)&lt;&gt;0,MIN($P18,$T18,$X18,$AB18),"")</f>
-        <v>94.74</v>
+        <v>94.49</v>
       </c>
       <c r="M18" s="117" t="s">
         <v>137</v>
@@ -2915,7 +2915,7 @@
         <v>0.09</v>
       </c>
       <c r="P18" s="51">
-        <v>94.74</v>
+        <v>94.49</v>
       </c>
       <c r="Q18" s="122" t="s">
         <v>139</v>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="L21" s="89">
         <f>IF(MIN($P21,$T21,$X21,$AB21)&lt;&gt;0,MIN($P21,$T21,$X21,$AB21),"")</f>
-        <v>189.48</v>
+        <v>188.98</v>
       </c>
       <c r="M21" s="118" t="s">
         <v>137</v>
@@ -3161,7 +3161,7 @@
         <v>0.09</v>
       </c>
       <c r="P21" s="52">
-        <v>189.48</v>
+        <v>188.98</v>
       </c>
       <c r="Q21" s="123" t="s">
         <v>139</v>
@@ -3247,7 +3247,7 @@
         <v>0.06</v>
       </c>
       <c r="P22" s="51">
-        <v>64.06</v>
+        <v>63.89</v>
       </c>
       <c r="Q22" s="122" t="s">
         <v>136</v>
@@ -3427,7 +3427,7 @@
         <v>0.41</v>
       </c>
       <c r="T24" s="51">
-        <v>411.98</v>
+        <v>410.89</v>
       </c>
       <c r="U24" s="122" t="s">
         <v>139</v>
@@ -3559,23 +3559,23 @@
       <c r="G26"/>
       <c r="H26" s="91" t="str">
         <f>IF(INDEX($M26:$AB26,$K26-3)&lt;&gt;0, INDEX($M26:$AB26,$K26-3), "")</f>
-        <v>Farnell</v>
+        <v>Digi-Key</v>
       </c>
       <c r="I26" s="92" t="str">
         <f>IF(INDEX($M26:$AB26,$K26-2)&lt;&gt;0, INDEX($M26:$AB26,$K26-2), "")</f>
-        <v>9492615</v>
+        <v>455-1749-1-ND</v>
       </c>
       <c r="J26" s="93">
         <f>IF(INDEX($M26:$AB26,$K26-1)&lt;&gt;0, INDEX($M26:$AB26,$K26-1), "")</f>
-        <v>0.26</v>
+        <v>0.36</v>
       </c>
       <c r="K26" s="92">
         <f>MATCH(MIN($P26,$T26,$X26,$AB26), $M26:$AB26,0)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L26" s="94">
         <f>IF(MIN($P26,$T26,$X26,$AB26)&lt;&gt;0,MIN($P26,$T26,$X26,$AB26),"")</f>
-        <v>260.95999999999998</v>
+        <v>364.7</v>
       </c>
       <c r="M26" s="117" t="s">
         <v>136</v>
@@ -3595,12 +3595,8 @@
       <c r="R26" s="119" t="s">
         <v>170</v>
       </c>
-      <c r="S26" s="51">
-        <v>0.26</v>
-      </c>
-      <c r="T26" s="51">
-        <v>260.95999999999998</v>
-      </c>
+      <c r="S26" s="51"/>
+      <c r="T26" s="51"/>
       <c r="U26" s="122" t="s">
         <v>138</v>
       </c>
@@ -3821,7 +3817,7 @@
       </c>
       <c r="L29" s="89">
         <f>IF(MIN($P29,$T29,$X29,$AB29)&lt;&gt;0,MIN($P29,$T29,$X29,$AB29),"")</f>
-        <v>58.68</v>
+        <v>58.52</v>
       </c>
       <c r="M29" s="118" t="s">
         <v>137</v>
@@ -3833,7 +3829,7 @@
         <v>0.06</v>
       </c>
       <c r="P29" s="52">
-        <v>58.68</v>
+        <v>58.52</v>
       </c>
       <c r="Q29" s="123" t="s">
         <v>139</v>
@@ -4302,10 +4298,10 @@
         <v>175</v>
       </c>
       <c r="S35" s="52">
-        <v>3.75</v>
+        <v>3.74</v>
       </c>
       <c r="T35" s="52">
-        <v>3753.01</v>
+        <v>3743.1</v>
       </c>
       <c r="U35" s="123" t="s">
         <v>136</v>
@@ -4391,8 +4387,12 @@
       <c r="R36" s="119" t="s">
         <v>176</v>
       </c>
-      <c r="S36" s="51"/>
-      <c r="T36" s="51"/>
+      <c r="S36" s="51">
+        <v>0.24</v>
+      </c>
+      <c r="T36" s="51">
+        <v>236.53</v>
+      </c>
       <c r="U36" s="122" t="s">
         <v>139</v>
       </c>
@@ -4457,7 +4457,7 @@
       </c>
       <c r="L37" s="89">
         <f>IF(MIN($P37,$T37,$X37,$AB37)&lt;&gt;0,MIN($P37,$T37,$X37,$AB37),"")</f>
-        <v>124.69</v>
+        <v>124.36</v>
       </c>
       <c r="M37" s="118" t="s">
         <v>137</v>
@@ -4469,7 +4469,7 @@
         <v>0.12</v>
       </c>
       <c r="P37" s="52">
-        <v>124.69</v>
+        <v>124.36</v>
       </c>
       <c r="Q37" s="123" t="s">
         <v>74</v>
@@ -4524,7 +4524,7 @@
       <c r="K38" s="60"/>
       <c r="L38" s="95">
         <f>SUM(L14:L37)</f>
-        <v>15393.130000000001</v>
+        <v>15495.51</v>
       </c>
       <c r="M38" s="54"/>
       <c r="N38" s="53"/>
@@ -4558,7 +4558,7 @@
       <c r="K39" s="79"/>
       <c r="L39" s="80">
         <f>L38/$B$10</f>
-        <v>15.393130000000001</v>
+        <v>15.495509999999999</v>
       </c>
       <c r="M39" s="70"/>
       <c r="N39" s="71"/>
@@ -4626,102 +4626,102 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="N14" r:id="rId1" tooltip="Supplier" display="'1276-1044-1-ND" xr:uid="{5FF5B8D8-60F2-48A0-8810-F337CE60AF82}"/>
-    <hyperlink ref="N15" tooltip="Supplier" display="'" xr:uid="{88B0A1BC-090A-4784-9BEC-C94BFA0BE7C3}"/>
-    <hyperlink ref="N16" r:id="rId2" tooltip="Supplier" display="'1327667" xr:uid="{0EA791D1-4FA8-4686-A9D9-FA6A8A362F90}"/>
-    <hyperlink ref="N17" tooltip="Supplier" display="'" xr:uid="{1B3C7C7A-4EDC-4C2A-AE6D-F759B68B3420}"/>
-    <hyperlink ref="N18" r:id="rId3" tooltip="Supplier" display="'2432679" xr:uid="{A5BB8143-42C7-48D1-8C9F-BA7942CC89B4}"/>
-    <hyperlink ref="N19" r:id="rId4" tooltip="Supplier" display="'1727-3884-1-ND" xr:uid="{054ABEA0-695C-458D-8F95-438E26610D3D}"/>
-    <hyperlink ref="N20" r:id="rId5" tooltip="Supplier" display="'511-1577-1-ND" xr:uid="{BA4F9762-1E7C-46C2-849B-A3F9F793EC50}"/>
-    <hyperlink ref="N21" r:id="rId6" tooltip="Supplier" display="'2432679" xr:uid="{14A6DF18-425B-4DE8-9CB8-B733336FA160}"/>
-    <hyperlink ref="N22" r:id="rId7" tooltip="Supplier" display="'2848524" xr:uid="{4CAD63A1-5235-41D5-B3EF-159E21451BD1}"/>
-    <hyperlink ref="N23" r:id="rId8" tooltip="Supplier" display="'445-8694-1-ND" xr:uid="{B835D505-8F28-4586-8D09-1DF39D73F394}"/>
-    <hyperlink ref="N24" r:id="rId9" tooltip="Supplier" display="'1360893" xr:uid="{235D1423-0ACB-430F-B81C-D492A374A66A}"/>
-    <hyperlink ref="N25" r:id="rId10" tooltip="Supplier" display="'490-SJ2-3574A-SMT-TR" xr:uid="{6ACD8F8B-9D6C-4DA3-8E07-1B176D23595B}"/>
-    <hyperlink ref="N26" r:id="rId11" tooltip="Supplier" display="'455-1749-1-ND" xr:uid="{B7DFB8C4-EBF2-4C9C-BE0F-6A83D91C8A44}"/>
-    <hyperlink ref="N27" r:id="rId12" tooltip="Supplier" display="'1528-2562-ND" xr:uid="{C71CF257-EC12-4358-B7BA-72B4CD764F58}"/>
-    <hyperlink ref="N28" r:id="rId13" tooltip="Supplier" display="'1764535" xr:uid="{3C1253FD-8447-4E75-B611-4FA18829E31C}"/>
-    <hyperlink ref="N29" r:id="rId14" tooltip="Supplier" display="'2543533" xr:uid="{92880469-C41D-4A74-8399-BC9AEF77C9A3}"/>
-    <hyperlink ref="N30" tooltip="Supplier" display="'" xr:uid="{8D9BFB44-FED2-40F6-8B60-3D8002922575}"/>
-    <hyperlink ref="N31" tooltip="Supplier" display="'" xr:uid="{75F9622B-7121-4373-A8B7-0BFFE60093DB}"/>
-    <hyperlink ref="N32" tooltip="Supplier" display="'" xr:uid="{F08B2234-8E5B-4E8E-BEAD-FC8B099B0C65}"/>
-    <hyperlink ref="N33" tooltip="Supplier" display="'" xr:uid="{9209E584-29EF-4948-A66C-9B24A31B3FA3}"/>
-    <hyperlink ref="N34" r:id="rId15" tooltip="Supplier" display="'2065110" xr:uid="{82110CC5-81FE-4D18-853C-B8150C5047B1}"/>
-    <hyperlink ref="N35" r:id="rId16" tooltip="Supplier" display="'1106616" xr:uid="{B33EEFA1-1D8B-4E2F-B23D-FFDEF14E7824}"/>
-    <hyperlink ref="N36" r:id="rId17" tooltip="Supplier" display="'1016-1873-1-ND" xr:uid="{E878967E-C886-403A-9FF2-45279A55AB19}"/>
-    <hyperlink ref="N37" r:id="rId18" tooltip="Supplier" display="'2853960" xr:uid="{E4EFCD58-05F9-43C1-9F3A-A2AB72559B74}"/>
-    <hyperlink ref="R14" r:id="rId19" tooltip="Supplier" display="'3010071" xr:uid="{5DE912EE-EBC3-4265-9952-3959564BCD1F}"/>
-    <hyperlink ref="R15" tooltip="Supplier" display="'" xr:uid="{15FA3EB9-FF59-428C-951C-07B14501D21E}"/>
-    <hyperlink ref="R16" r:id="rId20" tooltip="Supplier" display="'478-1138-1-ND" xr:uid="{F0824F9C-0C4C-4FD4-92C9-90BD7D8D3772}"/>
-    <hyperlink ref="R17" tooltip="Supplier" display="'" xr:uid="{3FA52FB5-C823-4558-944A-A07579FF22A2}"/>
-    <hyperlink ref="R18" r:id="rId21" tooltip="Supplier" display="'726-BAT60AE6327HTSA1" xr:uid="{91B823CE-DCC1-4544-9873-FFE643469E10}"/>
-    <hyperlink ref="R19" r:id="rId22" tooltip="Supplier" display="'725-8720" xr:uid="{15F98533-2CF3-477D-94C3-46A809F7827F}"/>
-    <hyperlink ref="R20" tooltip="Supplier" display="'" xr:uid="{0A8A34B7-206F-40AD-BC98-010DD180C809}"/>
-    <hyperlink ref="R21" r:id="rId23" tooltip="Supplier" display="'726-BAT60AE6327HTSA1" xr:uid="{6D6F90E4-E08D-4B2A-BC33-EACA7A5CC424}"/>
-    <hyperlink ref="R22" r:id="rId24" tooltip="Supplier" display="'507-1797-1-ND" xr:uid="{009504A6-A53C-493C-9E8F-229E2037945B}"/>
-    <hyperlink ref="R23" r:id="rId25" tooltip="Supplier" display="'810-MPZ1608S102ATA00" xr:uid="{A8CB602E-2493-4CC0-934C-F2227F444789}"/>
-    <hyperlink ref="R24" r:id="rId26" tooltip="Supplier" display="'2554981" xr:uid="{9C75D59B-586E-4434-A95D-023825EFA477}"/>
-    <hyperlink ref="R25" r:id="rId27" tooltip="Supplier" display="'CP-SJ2-3574A-SMT-CT-ND" xr:uid="{838B5D86-D078-4D42-8897-FDD80B6241AC}"/>
-    <hyperlink ref="R26" r:id="rId28" tooltip="Supplier" display="'9492615" xr:uid="{999F046D-A166-46CA-ADFE-5BDCE18E2542}"/>
-    <hyperlink ref="R27" r:id="rId29" tooltip="Supplier" display="'485-618" xr:uid="{D8749682-FA32-4985-B277-6D15156B2A87}"/>
-    <hyperlink ref="R28" r:id="rId30" tooltip="Supplier" display="'2N7002KT1GOSCT-ND" xr:uid="{148A4007-9208-4131-B98F-2D564301B873}"/>
-    <hyperlink ref="R29" r:id="rId31" tooltip="Supplier" display="'621-DMG2305UX-7" xr:uid="{6DE4FBD9-4FEE-4B62-A576-B50DE222C0C5}"/>
-    <hyperlink ref="R30" tooltip="Supplier" display="'" xr:uid="{D688B24C-8BB9-4ABD-8CE1-622444C81D80}"/>
-    <hyperlink ref="R31" tooltip="Supplier" display="'" xr:uid="{BA521CE0-70EB-489F-A2FC-89FF3FD1E199}"/>
-    <hyperlink ref="R32" tooltip="Supplier" display="'" xr:uid="{7728BC69-0F0C-4465-8180-F368341D6094}"/>
-    <hyperlink ref="R33" tooltip="Supplier" display="'" xr:uid="{109A78E4-E084-49C2-9CA4-DEEEC15A65C1}"/>
-    <hyperlink ref="R34" r:id="rId32" tooltip="Supplier" display="'732-6993-1-ND" xr:uid="{2DD137FF-D68D-4648-A2D7-CEAAC2478BD7}"/>
-    <hyperlink ref="R35" r:id="rId33" tooltip="Supplier" display="'2456965" xr:uid="{396A86EC-F8EA-414A-B3E5-B5A7A69B786F}"/>
-    <hyperlink ref="R36" r:id="rId34" tooltip="Supplier" display="'2889625" xr:uid="{0CF2B926-102D-4BC3-A634-87C7430EB1E9}"/>
-    <hyperlink ref="R37" tooltip="Supplier" display="'" xr:uid="{944238BE-7B52-43E7-B585-660064D99894}"/>
-    <hyperlink ref="V14" tooltip="Supplier" display="'" xr:uid="{F4AD8A27-29D3-444D-B9C8-96399068EB77}"/>
-    <hyperlink ref="V15" tooltip="Supplier" display="'" xr:uid="{95AF2F88-6A86-4CF1-BB14-638C5C1884FD}"/>
-    <hyperlink ref="V16" r:id="rId35" tooltip="Supplier" display="'581-040216G104Z" xr:uid="{B543C58C-80F4-4CC9-9B77-3E703A059655}"/>
-    <hyperlink ref="V17" tooltip="Supplier" display="'" xr:uid="{C913CD4E-1D90-4D94-B4A9-4A567CCF22F1}"/>
-    <hyperlink ref="V18" r:id="rId36" tooltip="Supplier" display="'7527855" xr:uid="{DDF03CBD-B696-48F8-BDDE-D005F7D7B330}"/>
-    <hyperlink ref="V19" r:id="rId37" tooltip="Supplier" display="'771-PRTR5V0U2X-T/R" xr:uid="{9DE08E58-CA52-41D1-B097-EAC52E0ACDED}"/>
-    <hyperlink ref="V20" tooltip="Supplier" display="'" xr:uid="{083D4977-D833-45FE-A304-371A49FF960A}"/>
-    <hyperlink ref="V21" r:id="rId38" tooltip="Supplier" display="'7527855" xr:uid="{2B8ED09C-73AA-4B58-A8D4-E389B09CB5E6}"/>
-    <hyperlink ref="V22" r:id="rId39" tooltip="Supplier" display="'530-0ZCJ0020FF2E" xr:uid="{EA736B33-39D5-4184-8C89-7CCA287DFCDD}"/>
-    <hyperlink ref="V23" tooltip="Supplier" display="'" xr:uid="{B12C4377-AB24-45C5-A395-D4D05528E167}"/>
-    <hyperlink ref="V24" r:id="rId40" tooltip="Supplier" display="'798-ZX62D-B-5PA830" xr:uid="{7D661EAC-81EC-4128-B242-C5F553852547}"/>
-    <hyperlink ref="V25" tooltip="Supplier" display="'" xr:uid="{F34A47B8-83E2-4F64-A98D-3B35341325C7}"/>
-    <hyperlink ref="V26" tooltip="Supplier" display="'688-1353" xr:uid="{C5504F4E-A1FC-4336-A3A7-8A9F4EE9A729}"/>
-    <hyperlink ref="V27" tooltip="Supplier" display="'618" xr:uid="{A9EE6AD5-2580-402E-9C26-97E6A9C03271}"/>
-    <hyperlink ref="V28" r:id="rId41" tooltip="Supplier" display="'863-2N7002KT1G" xr:uid="{B43C85B4-70CA-4C4E-BD8D-B936A598BD94}"/>
-    <hyperlink ref="V29" r:id="rId42" tooltip="Supplier" display="'8270452" xr:uid="{530AEA58-5C4E-47CC-848D-1635C4E03126}"/>
-    <hyperlink ref="V30" tooltip="Supplier" display="'" xr:uid="{A1FB9788-88D5-4280-9E9D-638E3ADE7CA5}"/>
-    <hyperlink ref="V31" tooltip="Supplier" display="'" xr:uid="{9D43D929-8B9B-455E-9DCF-1884184D8CCC}"/>
-    <hyperlink ref="V32" tooltip="Supplier" display="'" xr:uid="{0090E94F-F875-48B5-B1A9-7F015B5F7145}"/>
-    <hyperlink ref="V33" tooltip="Supplier" display="'" xr:uid="{6EA26A42-7FC0-4C4E-817D-CA532C012E1A}"/>
-    <hyperlink ref="V34" r:id="rId43" tooltip="Supplier" display="'7856213" xr:uid="{7A705159-9F08-4A38-ACB4-011DB7C2FCC9}"/>
-    <hyperlink ref="V35" r:id="rId44" tooltip="Supplier" display="'497-14907-ND" xr:uid="{137C20BD-EFA8-4D2B-9946-6F15CF5A02CB}"/>
-    <hyperlink ref="V36" r:id="rId45" tooltip="Supplier" display="'701-SPX3819M5-L-33TR" xr:uid="{8A64533E-8EF0-47C6-9998-78EDA680AB3C}"/>
-    <hyperlink ref="V37" tooltip="Supplier" display="'" xr:uid="{3367EE39-109B-4242-8432-73D2503CCBA4}"/>
-    <hyperlink ref="Z14" tooltip="Supplier" display="'" xr:uid="{E12CD631-9315-4128-9654-3FF6367EF1C3}"/>
-    <hyperlink ref="Z15" tooltip="Supplier" display="'" xr:uid="{7EA7D55C-D028-4566-BD56-3E1B8E4A3BB6}"/>
-    <hyperlink ref="Z16" tooltip="Supplier" display="'698-3190" xr:uid="{94BCE77C-7E91-4E77-A445-1094625046F6}"/>
-    <hyperlink ref="Z17" tooltip="Supplier" display="'" xr:uid="{A0EB0CCB-6B54-4B33-B006-F3248547C952}"/>
-    <hyperlink ref="Z18" r:id="rId46" tooltip="Supplier" display="'BAT60AE6327HTSA1CT-ND" xr:uid="{64AC5D8D-0BA5-445B-AFDB-E428A1147EB0}"/>
-    <hyperlink ref="Z19" tooltip="Supplier" display="'771-PRTR5V0U2X-T/R" xr:uid="{11A018DD-2C2B-46BD-840E-496E9CFC8AB9}"/>
-    <hyperlink ref="Z20" tooltip="Supplier" display="'" xr:uid="{F57EFB26-A709-4159-8F3C-8887B1F6207D}"/>
-    <hyperlink ref="Z21" r:id="rId47" tooltip="Supplier" display="'BAT60AE6327HTSA1CT-ND" xr:uid="{C4A1E5CD-E5E3-4294-810D-2E6E46687A79}"/>
-    <hyperlink ref="Z22" tooltip="Supplier" display="'" xr:uid="{EBE0F9E4-DF52-4956-A622-5DB7AE89369B}"/>
-    <hyperlink ref="Z23" tooltip="Supplier" display="'" xr:uid="{3897C928-4B19-4744-8488-C86623E99763}"/>
-    <hyperlink ref="Z24" r:id="rId48" tooltip="Supplier" display="'H125718CT-ND" xr:uid="{1046BBB3-86C2-4503-A826-22896E95B68E}"/>
-    <hyperlink ref="Z25" tooltip="Supplier" display="'" xr:uid="{5781E721-2A94-484E-A56A-3A97985B16CB}"/>
-    <hyperlink ref="Z26" tooltip="Supplier" display="'" xr:uid="{81DC4DAB-E57A-4FD5-9026-347A7B10C852}"/>
-    <hyperlink ref="Z27" tooltip="Supplier" display="'" xr:uid="{1AD0C010-6E5E-4B88-B582-CF878AFF77B0}"/>
-    <hyperlink ref="Z28" tooltip="Supplier" display="'780-0478" xr:uid="{AE34F2B4-5E1F-4321-B072-56306319A3BE}"/>
-    <hyperlink ref="Z29" r:id="rId49" tooltip="Supplier" display="'DMG2305UX-13DICT-ND" xr:uid="{3D137235-CD52-434D-895F-E3FF92806F04}"/>
-    <hyperlink ref="Z30" tooltip="Supplier" display="'" xr:uid="{437A6872-2A15-4D18-A28B-D90CCC46CFFD}"/>
-    <hyperlink ref="Z31" tooltip="Supplier" display="'" xr:uid="{3E809E3F-0FF5-4A70-8CAE-7EE2B818E892}"/>
-    <hyperlink ref="Z32" tooltip="Supplier" display="'" xr:uid="{E0F51B4F-0EFE-4C2D-ADAA-15F1E4DA1474}"/>
-    <hyperlink ref="Z33" tooltip="Supplier" display="'" xr:uid="{B79D2FC7-2CD5-47C9-9689-21C74004C443}"/>
-    <hyperlink ref="Z34" tooltip="Supplier" display="'" xr:uid="{876CC21B-2281-4A65-9516-715818EA5140}"/>
-    <hyperlink ref="Z35" r:id="rId50" tooltip="Supplier" display="'511-STM32F411CEU6" xr:uid="{DFFBFBF8-22A8-4767-952E-FD6F267517AD}"/>
-    <hyperlink ref="Z36" r:id="rId51" tooltip="Supplier" display="'8472888" xr:uid="{D8EC9DAA-39A6-44A2-A19B-2A851CFECB27}"/>
-    <hyperlink ref="Z37" tooltip="Supplier" display="'" xr:uid="{AB25F565-F1D2-43AF-BF7E-6E53B5F93379}"/>
+    <hyperlink ref="N14" r:id="rId1" tooltip="Supplier" display="'1276-1044-1-ND" xr:uid="{0317C2B1-DFB8-43B3-9240-BD003DA0EA24}"/>
+    <hyperlink ref="N15" tooltip="Supplier" display="'" xr:uid="{7A5D12EF-AF48-4C33-95D8-6DC71FE3CAE3}"/>
+    <hyperlink ref="N16" r:id="rId2" tooltip="Supplier" display="'1327667" xr:uid="{76312FB7-E800-407D-A88B-C16F8E2AE237}"/>
+    <hyperlink ref="N17" tooltip="Supplier" display="'" xr:uid="{ECCC0791-1418-437F-809E-BB8B2F9057B8}"/>
+    <hyperlink ref="N18" r:id="rId3" tooltip="Supplier" display="'2432679" xr:uid="{B2B658F8-6F79-4756-BAF9-0FE9A73EBCAF}"/>
+    <hyperlink ref="N19" r:id="rId4" tooltip="Supplier" display="'1727-3884-1-ND" xr:uid="{47F87C89-FFAE-4C90-ACF4-1F1EC8DF5615}"/>
+    <hyperlink ref="N20" r:id="rId5" tooltip="Supplier" display="'511-1577-1-ND" xr:uid="{4E446268-3A6D-4F1B-93BB-E0A3AC8C2CAB}"/>
+    <hyperlink ref="N21" r:id="rId6" tooltip="Supplier" display="'2432679" xr:uid="{85E7D982-6D95-4126-A6C4-F2D02443C84E}"/>
+    <hyperlink ref="N22" r:id="rId7" tooltip="Supplier" display="'2848524" xr:uid="{E8A54F20-F948-4881-8DFB-71CA711AB58E}"/>
+    <hyperlink ref="N23" r:id="rId8" tooltip="Supplier" display="'445-8694-1-ND" xr:uid="{466E3F59-47E3-461E-91E6-B7E507C86CAC}"/>
+    <hyperlink ref="N24" r:id="rId9" tooltip="Supplier" display="'1360893" xr:uid="{E2BEBA39-BEE7-4A91-BBDA-F876DFD575B6}"/>
+    <hyperlink ref="N25" r:id="rId10" tooltip="Supplier" display="'490-SJ2-3574A-SMT-TR" xr:uid="{D6847EDC-2D40-4FA1-A86E-853A40C12625}"/>
+    <hyperlink ref="N26" r:id="rId11" tooltip="Supplier" display="'455-1749-1-ND" xr:uid="{F7C4F96A-6FC9-4E83-8070-C07E4C12FEC8}"/>
+    <hyperlink ref="N27" r:id="rId12" tooltip="Supplier" display="'1528-2562-ND" xr:uid="{49CD4EC1-43B2-4557-91D0-44BCEFE2512B}"/>
+    <hyperlink ref="N28" r:id="rId13" tooltip="Supplier" display="'1764535" xr:uid="{9B230BF2-7E3C-409E-86F2-7C19ADC33662}"/>
+    <hyperlink ref="N29" r:id="rId14" tooltip="Supplier" display="'2543533" xr:uid="{98A1657F-07EC-4ED0-8D91-03FEB3E9F98E}"/>
+    <hyperlink ref="N30" tooltip="Supplier" display="'" xr:uid="{9F2666F1-3AF6-408E-9EEE-8A7946B87DAC}"/>
+    <hyperlink ref="N31" tooltip="Supplier" display="'" xr:uid="{1F8B67F7-A087-4179-9151-E390769151CD}"/>
+    <hyperlink ref="N32" tooltip="Supplier" display="'" xr:uid="{973C0914-DADE-43CA-B907-1C87052693B0}"/>
+    <hyperlink ref="N33" tooltip="Supplier" display="'" xr:uid="{F6643287-4C6D-43A9-AA34-3BBDF7B0ECFF}"/>
+    <hyperlink ref="N34" r:id="rId15" tooltip="Supplier" display="'2065110" xr:uid="{DF8F2A5D-89F7-4D2A-86DA-A2A5CD88F95F}"/>
+    <hyperlink ref="N35" r:id="rId16" tooltip="Supplier" display="'1106616" xr:uid="{B3A813DE-BDB7-48EB-86AC-C52D78E5AA03}"/>
+    <hyperlink ref="N36" r:id="rId17" tooltip="Supplier" display="'1016-1873-1-ND" xr:uid="{40E2E5EE-82DC-4FA7-800E-25466B9CE5DF}"/>
+    <hyperlink ref="N37" r:id="rId18" tooltip="Supplier" display="'2853960" xr:uid="{79407A06-AA68-4E24-A82A-12AEDB2AEB59}"/>
+    <hyperlink ref="R14" r:id="rId19" tooltip="Supplier" display="'3010071" xr:uid="{9C93CD68-79FF-4A18-8BFC-A4E2102A2429}"/>
+    <hyperlink ref="R15" tooltip="Supplier" display="'" xr:uid="{87DE5080-DF24-483D-A882-1EB0EF3B25F0}"/>
+    <hyperlink ref="R16" r:id="rId20" tooltip="Supplier" display="'478-1138-1-ND" xr:uid="{BB681533-7912-464D-B4E5-B0AD4329F7A2}"/>
+    <hyperlink ref="R17" tooltip="Supplier" display="'" xr:uid="{38505D90-A292-4265-888A-AF3C35EF2F54}"/>
+    <hyperlink ref="R18" r:id="rId21" tooltip="Supplier" display="'726-BAT60AE6327HTSA1" xr:uid="{7771CD95-0DC4-45AD-B5E8-BF204DDBABCD}"/>
+    <hyperlink ref="R19" r:id="rId22" tooltip="Supplier" display="'725-8720" xr:uid="{D5F70D6F-2FC8-48BC-93AD-A43683CE81E2}"/>
+    <hyperlink ref="R20" tooltip="Supplier" display="'" xr:uid="{A1019CE4-586C-4D26-80A3-83BAB7021326}"/>
+    <hyperlink ref="R21" r:id="rId23" tooltip="Supplier" display="'726-BAT60AE6327HTSA1" xr:uid="{83F686DE-7A26-447D-99F3-DAB2FBD29D0E}"/>
+    <hyperlink ref="R22" r:id="rId24" tooltip="Supplier" display="'507-1797-1-ND" xr:uid="{B4851720-1B3E-47BA-995B-1B8C22897243}"/>
+    <hyperlink ref="R23" r:id="rId25" tooltip="Supplier" display="'810-MPZ1608S102ATA00" xr:uid="{F7996D60-CFD1-45EA-A7E7-1C9F1EA36039}"/>
+    <hyperlink ref="R24" r:id="rId26" tooltip="Supplier" display="'2554981" xr:uid="{D2A63246-000F-4462-B8DF-2785F36A1817}"/>
+    <hyperlink ref="R25" r:id="rId27" tooltip="Supplier" display="'CP-SJ2-3574A-SMT-CT-ND" xr:uid="{EF96EB5A-C0DB-45B4-9122-A7D112B46787}"/>
+    <hyperlink ref="R26" r:id="rId28" tooltip="Supplier" display="'9492615" xr:uid="{3749A3D1-0B18-4579-8958-6DEC902B5F90}"/>
+    <hyperlink ref="R27" r:id="rId29" tooltip="Supplier" display="'485-618" xr:uid="{2FAE0550-A737-45FC-A2AF-CC7C33982379}"/>
+    <hyperlink ref="R28" r:id="rId30" tooltip="Supplier" display="'2N7002KT1GOSCT-ND" xr:uid="{09A257B7-B1F8-429F-AA18-F3EFBCF319F3}"/>
+    <hyperlink ref="R29" r:id="rId31" tooltip="Supplier" display="'621-DMG2305UX-7" xr:uid="{F24CA357-0B04-4885-A77A-3DF40F1951D5}"/>
+    <hyperlink ref="R30" tooltip="Supplier" display="'" xr:uid="{4FA400BB-7AB8-428E-97DF-E14B2ACA5949}"/>
+    <hyperlink ref="R31" tooltip="Supplier" display="'" xr:uid="{5544A6CA-FA8C-479F-8E8A-89814CBC1599}"/>
+    <hyperlink ref="R32" tooltip="Supplier" display="'" xr:uid="{18745158-397E-47CE-9AF7-EB52802E81A2}"/>
+    <hyperlink ref="R33" tooltip="Supplier" display="'" xr:uid="{B4139730-CB01-4132-A64B-437E34FF0A6E}"/>
+    <hyperlink ref="R34" r:id="rId32" tooltip="Supplier" display="'732-6993-1-ND" xr:uid="{AD6C7366-AFC6-4516-8219-D4021F800E34}"/>
+    <hyperlink ref="R35" r:id="rId33" tooltip="Supplier" display="'2456965" xr:uid="{1237F348-74E9-47DA-97B6-8D2EC87A8C1F}"/>
+    <hyperlink ref="R36" r:id="rId34" tooltip="Supplier" display="'2889625" xr:uid="{7AB8F7D6-922A-4F6A-A5EA-6A34FC9E4F24}"/>
+    <hyperlink ref="R37" tooltip="Supplier" display="'" xr:uid="{5E899157-ACAA-475A-928A-480C19AB45C8}"/>
+    <hyperlink ref="V14" tooltip="Supplier" display="'" xr:uid="{808328EC-FA9F-4422-86E3-D1893670DBF8}"/>
+    <hyperlink ref="V15" tooltip="Supplier" display="'" xr:uid="{F2A87DE7-74D3-4893-9B4E-CDE12610CE97}"/>
+    <hyperlink ref="V16" r:id="rId35" tooltip="Supplier" display="'581-040216G104Z" xr:uid="{7EEB248A-D735-4667-AA51-1FC53769AA9A}"/>
+    <hyperlink ref="V17" tooltip="Supplier" display="'" xr:uid="{592D17E9-8F13-4F4C-889D-F6B63A7AF09A}"/>
+    <hyperlink ref="V18" r:id="rId36" tooltip="Supplier" display="'7527855" xr:uid="{0F76E288-D5D0-441E-8D50-ABBBE2CFE324}"/>
+    <hyperlink ref="V19" r:id="rId37" tooltip="Supplier" display="'771-PRTR5V0U2X-T/R" xr:uid="{224B48C0-A4D7-4007-9A30-1396F147F3F2}"/>
+    <hyperlink ref="V20" tooltip="Supplier" display="'" xr:uid="{1A6DB8A7-9996-4B13-8234-932D9EBE6429}"/>
+    <hyperlink ref="V21" r:id="rId38" tooltip="Supplier" display="'7527855" xr:uid="{F997006B-FA6E-45FD-8E71-DDFDD9787DF8}"/>
+    <hyperlink ref="V22" r:id="rId39" tooltip="Supplier" display="'530-0ZCJ0020FF2E" xr:uid="{831D97E0-8CD3-4A8F-8E76-9069738160F6}"/>
+    <hyperlink ref="V23" tooltip="Supplier" display="'" xr:uid="{87876DF6-AD30-4FC7-A107-30E06BDD33BA}"/>
+    <hyperlink ref="V24" r:id="rId40" tooltip="Supplier" display="'798-ZX62D-B-5PA830" xr:uid="{C9DAF163-5A5F-43F8-989E-8B48C47743E1}"/>
+    <hyperlink ref="V25" tooltip="Supplier" display="'" xr:uid="{48548035-A944-4FB8-A9B9-E7B6D81343E5}"/>
+    <hyperlink ref="V26" tooltip="Supplier" display="'688-1353" xr:uid="{BFB7603A-2915-49A8-BDE9-4EFA9E5BE46A}"/>
+    <hyperlink ref="V27" tooltip="Supplier" display="'618" xr:uid="{301F6B89-7BFC-42D8-9A13-3AEC2B82063B}"/>
+    <hyperlink ref="V28" r:id="rId41" tooltip="Supplier" display="'863-2N7002KT1G" xr:uid="{08DB92AD-E703-4FAB-92E8-6088008757EC}"/>
+    <hyperlink ref="V29" r:id="rId42" tooltip="Supplier" display="'8270452" xr:uid="{77EADB08-790A-44A3-B76F-D684E1C83B75}"/>
+    <hyperlink ref="V30" tooltip="Supplier" display="'" xr:uid="{5A47FB42-3030-4900-BE8A-F5C05623C9E5}"/>
+    <hyperlink ref="V31" tooltip="Supplier" display="'" xr:uid="{88EB0175-974D-4A42-A23E-6E96361D5880}"/>
+    <hyperlink ref="V32" tooltip="Supplier" display="'" xr:uid="{2BA93400-A2FB-4B5F-8CB1-63A5B52F5B29}"/>
+    <hyperlink ref="V33" tooltip="Supplier" display="'" xr:uid="{A50C7DDB-BED0-49FB-8F5D-2C2D09A65717}"/>
+    <hyperlink ref="V34" r:id="rId43" tooltip="Supplier" display="'7856213" xr:uid="{376CC92C-BE07-4FF8-94B4-36632A1F32D6}"/>
+    <hyperlink ref="V35" r:id="rId44" tooltip="Supplier" display="'497-14907-ND" xr:uid="{34C6ABD1-163B-4242-93AA-65AFF54877A2}"/>
+    <hyperlink ref="V36" r:id="rId45" tooltip="Supplier" display="'701-SPX3819M5-L-33TR" xr:uid="{F950DCA4-459F-4609-9473-1C41FD4C8153}"/>
+    <hyperlink ref="V37" tooltip="Supplier" display="'" xr:uid="{0172D520-1B10-4018-ABE9-00C4012AE296}"/>
+    <hyperlink ref="Z14" tooltip="Supplier" display="'" xr:uid="{257CE6CB-90D5-4DDA-B05A-779EDE042841}"/>
+    <hyperlink ref="Z15" tooltip="Supplier" display="'" xr:uid="{50A3BA96-685E-4764-9C9D-656A020AA3B6}"/>
+    <hyperlink ref="Z16" tooltip="Supplier" display="'698-3190" xr:uid="{5737825C-269C-4F04-8910-AD47AE03EF6D}"/>
+    <hyperlink ref="Z17" tooltip="Supplier" display="'" xr:uid="{CB68C6AD-0F92-4051-964D-817E885865CC}"/>
+    <hyperlink ref="Z18" r:id="rId46" tooltip="Supplier" display="'BAT60AE6327HTSA1CT-ND" xr:uid="{DA046B49-4EE3-40DB-9FA8-1C4F45149FDA}"/>
+    <hyperlink ref="Z19" tooltip="Supplier" display="'771-PRTR5V0U2X-T/R" xr:uid="{728F344A-CB34-4144-89B2-AB9C46619C3A}"/>
+    <hyperlink ref="Z20" tooltip="Supplier" display="'" xr:uid="{177B6B19-F503-4509-9242-2CF6F9C9ADC9}"/>
+    <hyperlink ref="Z21" r:id="rId47" tooltip="Supplier" display="'BAT60AE6327HTSA1CT-ND" xr:uid="{DFBE65DE-A60E-4340-9142-A5157FE96B96}"/>
+    <hyperlink ref="Z22" tooltip="Supplier" display="'" xr:uid="{71BCAB1B-E470-43BD-8420-9D79A3749216}"/>
+    <hyperlink ref="Z23" tooltip="Supplier" display="'" xr:uid="{FBFDF4FD-7E4D-4C2F-95EA-B79A7A7F7151}"/>
+    <hyperlink ref="Z24" r:id="rId48" tooltip="Supplier" display="'H125718CT-ND" xr:uid="{0CECED32-5B66-46B7-8F34-E5F7F254970C}"/>
+    <hyperlink ref="Z25" tooltip="Supplier" display="'" xr:uid="{B9DD5B86-E36D-4189-A7DC-1D22DA715ECF}"/>
+    <hyperlink ref="Z26" tooltip="Supplier" display="'" xr:uid="{5DD7D993-6D7A-43A0-BB6A-4B1FA61DF059}"/>
+    <hyperlink ref="Z27" tooltip="Supplier" display="'" xr:uid="{96C3DD05-3252-404F-A127-3349AE5FEA9C}"/>
+    <hyperlink ref="Z28" tooltip="Supplier" display="'780-0478" xr:uid="{B07803CF-98A6-4622-B866-FF8CD2A0E966}"/>
+    <hyperlink ref="Z29" r:id="rId49" tooltip="Supplier" display="'DMG2305UX-13DICT-ND" xr:uid="{5D482E11-5F21-4DB8-A91D-A66AA8D51C25}"/>
+    <hyperlink ref="Z30" tooltip="Supplier" display="'" xr:uid="{F8F08B2C-7150-4212-9CC3-06A88CEDEDAA}"/>
+    <hyperlink ref="Z31" tooltip="Supplier" display="'" xr:uid="{91E4CC60-BA02-4356-A065-C03BC5E1AAC2}"/>
+    <hyperlink ref="Z32" tooltip="Supplier" display="'" xr:uid="{8F1B6C7A-0819-488A-8688-43D4A2D71CD9}"/>
+    <hyperlink ref="Z33" tooltip="Supplier" display="'" xr:uid="{BEA94882-4817-46C5-BA8B-88EDABD2E4E9}"/>
+    <hyperlink ref="Z34" tooltip="Supplier" display="'" xr:uid="{1E9E65E5-456D-4788-A244-FD9682EE9FEB}"/>
+    <hyperlink ref="Z35" r:id="rId50" tooltip="Supplier" display="'511-STM32F411CEU6" xr:uid="{9EDE4435-D903-4D1D-8AC7-D6CEE7AF6E59}"/>
+    <hyperlink ref="Z36" r:id="rId51" tooltip="Supplier" display="'8472888" xr:uid="{FCB4695E-D14A-4161-B567-3D9EEDB4018E}"/>
+    <hyperlink ref="Z37" tooltip="Supplier" display="'" xr:uid="{BE43F66A-A344-43A1-8646-ED3D5259D8DF}"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0" header="0.11811023622047245" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="48" orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId52"/>
